--- a/data/trans_orig/P13A_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5655</v>
+        <v>5736</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003597121234801936</v>
+        <v>0.003597121234801937</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01773571033738749</v>
+        <v>0.01799011705731033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>4813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2289</v>
+        <v>2403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8880</v>
+        <v>9198</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01522715267660744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007243616582887387</v>
+        <v>0.00760263152316497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02809549439721248</v>
+        <v>0.02910151718320637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>5960</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2968</v>
+        <v>2885</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11483</v>
+        <v>11121</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.009386632839541045</v>
+        <v>0.009386632839541047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004674567256437762</v>
+        <v>0.004543650436968511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01808664629920104</v>
+        <v>0.01751548808358116</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>317698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>313190</v>
+        <v>313109</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9964028787651981</v>
+        <v>0.9964028787651983</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9822642896626126</v>
+        <v>0.9820098829426898</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>311248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307181</v>
+        <v>306863</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313772</v>
+        <v>313658</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9847728473233924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9719045056027875</v>
+        <v>0.9708984828167936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9927563834171127</v>
+        <v>0.9923973684768351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>859</v>
@@ -854,19 +854,19 @@
         <v>628946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623423</v>
+        <v>623785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>631938</v>
+        <v>632021</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.990613367160459</v>
+        <v>0.9906133671604591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9819133537007987</v>
+        <v>0.9824845119164187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.995325432743562</v>
+        <v>0.9954563495630314</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>13171</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6658</v>
+        <v>6673</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23864</v>
+        <v>23640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02482135440954131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01254774420441638</v>
+        <v>0.01257613781293691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04497153899441605</v>
+        <v>0.04454880071863745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -979,19 +979,19 @@
         <v>27650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19517</v>
+        <v>19628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38195</v>
+        <v>37693</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05059491446960077</v>
+        <v>0.05059491446960078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03571274935031899</v>
+        <v>0.03591611739223671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06989088080400913</v>
+        <v>0.06897149288233136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -1000,19 +1000,19 @@
         <v>40821</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30921</v>
+        <v>29906</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53904</v>
+        <v>54757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03789772996950494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02870664095975407</v>
+        <v>0.02776460827564804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05004332694616358</v>
+        <v>0.05083527877408472</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>517476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>506783</v>
+        <v>507007</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>523989</v>
+        <v>523974</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9751786455904586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9550284610055841</v>
+        <v>0.9554511992813627</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9874522557955838</v>
+        <v>0.9874238621870639</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>679</v>
@@ -1050,19 +1050,19 @@
         <v>518844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>508299</v>
+        <v>508801</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>526977</v>
+        <v>526866</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9494050855303993</v>
+        <v>0.9494050855303992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.930109119195991</v>
+        <v>0.9310285071176687</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9642872506496816</v>
+        <v>0.9640838826077632</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -1071,19 +1071,19 @@
         <v>1036320</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1023237</v>
+        <v>1022384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1046220</v>
+        <v>1047235</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9621022700304951</v>
+        <v>0.962102270030495</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9499566730538369</v>
+        <v>0.9491647212259157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9712933590402459</v>
+        <v>0.9722353917243521</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>5265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2242</v>
+        <v>2422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10890</v>
+        <v>10705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01677369406854031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007141392067053314</v>
+        <v>0.007714658182529263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03469267262215862</v>
+        <v>0.03410148637580551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1196,19 +1196,19 @@
         <v>17625</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11708</v>
+        <v>11904</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25180</v>
+        <v>25588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04996487895975965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03319250101737384</v>
+        <v>0.03374710525820154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07138321628740732</v>
+        <v>0.07254057940623829</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1217,19 +1217,19 @@
         <v>22890</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15593</v>
+        <v>16217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31984</v>
+        <v>32141</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03433603631682456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0233908857220216</v>
+        <v>0.02432645503674866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04797758747513328</v>
+        <v>0.04821277399277668</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>308641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303016</v>
+        <v>303201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311664</v>
+        <v>311484</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9832263059314597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9653073273778413</v>
+        <v>0.9658985136241943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9928586079329467</v>
+        <v>0.9922853418174709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>504</v>
@@ -1267,19 +1267,19 @@
         <v>335116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327561</v>
+        <v>327153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>341033</v>
+        <v>340837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9500351210402402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9286167837125928</v>
+        <v>0.9274594205937617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.966807498982626</v>
+        <v>0.9662528947417983</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>854</v>
@@ -1288,19 +1288,19 @@
         <v>643757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>634663</v>
+        <v>634506</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651054</v>
+        <v>650430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9656639636831754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9520224125248667</v>
+        <v>0.9517872260072231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9766091142779784</v>
+        <v>0.9756735449632514</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5936</v>
+        <v>5479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005481477140570478</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001477291321420934</v>
+        <v>0.001527118063363542</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01594245443273245</v>
+        <v>0.01471502008528502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1413,19 +1413,19 @@
         <v>19483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12112</v>
+        <v>11829</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37364</v>
+        <v>35528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04629535118531049</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0287808751547622</v>
+        <v>0.02810748448601378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08878505818994398</v>
+        <v>0.08442222644707914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1434,19 +1434,19 @@
         <v>21524</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13482</v>
+        <v>13427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39846</v>
+        <v>37666</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02713541846925954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01699689646181669</v>
+        <v>0.01692735559418528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05023416236911929</v>
+        <v>0.04748696780845246</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>370322</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366427</v>
+        <v>366884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371813</v>
+        <v>371794</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9945185228594297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9840575455672673</v>
+        <v>0.9852849799147151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9985227086785791</v>
+        <v>0.9984728819366364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>575</v>
@@ -1484,19 +1484,19 @@
         <v>401350</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>383469</v>
+        <v>385305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>408721</v>
+        <v>409004</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9537046488146896</v>
+        <v>0.9537046488146895</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9112149418100557</v>
+        <v>0.9155777735529208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9712191248452376</v>
+        <v>0.9718925155139861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -1505,19 +1505,19 @@
         <v>771672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>753350</v>
+        <v>755530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>779714</v>
+        <v>779769</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9728645815307405</v>
+        <v>0.9728645815307404</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9497658376308802</v>
+        <v>0.9525130321915476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9830031035381833</v>
+        <v>0.9830726444058149</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7405</v>
+        <v>8510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009955971681320178</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03600393934473972</v>
+        <v>0.04138021583701259</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1630,19 +1630,19 @@
         <v>4499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2096</v>
+        <v>2260</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8410</v>
+        <v>8305</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01979845369852369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009224927733412304</v>
+        <v>0.009945509352166666</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03701534692460353</v>
+        <v>0.03655196645139829</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1651,19 +1651,19 @@
         <v>6546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3446</v>
+        <v>3603</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11742</v>
+        <v>12413</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01512220615331645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007961789726515445</v>
+        <v>0.008323371937381323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02712615762103759</v>
+        <v>0.02867581267520932</v>
       </c>
     </row>
     <row r="17">
@@ -1680,16 +1680,16 @@
         <v>203617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198260</v>
+        <v>197155</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9900440283186797</v>
+        <v>0.9900440283186798</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9639960606552604</v>
+        <v>0.9586197841629868</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1701,19 +1701,19 @@
         <v>222716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218805</v>
+        <v>218910</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225119</v>
+        <v>224955</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9802015463014765</v>
+        <v>0.9802015463014762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9629846530753963</v>
+        <v>0.9634480335486016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9907750722665877</v>
+        <v>0.9900544906478332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>759</v>
@@ -1722,19 +1722,19 @@
         <v>426333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421137</v>
+        <v>420466</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429433</v>
+        <v>429276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9848777938466836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9728738423789622</v>
+        <v>0.9713241873247905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9920382102734844</v>
+        <v>0.9916766280626187</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6177</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2878</v>
+        <v>3086</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11006</v>
+        <v>11749</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02284633879094777</v>
+        <v>0.02284633879094778</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01064490258653679</v>
+        <v>0.01141264869808521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04070870553622927</v>
+        <v>0.04345762439402891</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1847,19 +1847,19 @@
         <v>12319</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8079</v>
+        <v>7724</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18116</v>
+        <v>18094</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04677704553902436</v>
+        <v>0.04677704553902435</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03067895472870087</v>
+        <v>0.02933125156375562</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06879149083594381</v>
+        <v>0.06870895054768725</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1868,19 +1868,19 @@
         <v>18495</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12440</v>
+        <v>12897</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26251</v>
+        <v>26230</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03465430925142895</v>
+        <v>0.03465430925142896</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0233081957988243</v>
+        <v>0.02416475809197264</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04918679141500464</v>
+        <v>0.04914713420460616</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>264188</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259359</v>
+        <v>258616</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267487</v>
+        <v>267279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9771536612090523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9592912944637708</v>
+        <v>0.9565423756059711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9893550974134632</v>
+        <v>0.988587351301915</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>436</v>
@@ -1918,19 +1918,19 @@
         <v>251026</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245229</v>
+        <v>245251</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>255266</v>
+        <v>255621</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9532229544609757</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9312085091640563</v>
+        <v>0.9312910494523129</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9693210452712993</v>
+        <v>0.9706687484362444</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>796</v>
@@ -1939,19 +1939,19 @@
         <v>515215</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>507459</v>
+        <v>507480</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521270</v>
+        <v>520813</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9653456907485708</v>
+        <v>0.965345690748571</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9508132085849951</v>
+        <v>0.9508528657953947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9766918042011757</v>
+        <v>0.9758352419080274</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>8914</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3850</v>
+        <v>4311</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16437</v>
+        <v>17072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01254949037176152</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005420684918154524</v>
+        <v>0.006069120030297194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02314136113399124</v>
+        <v>0.02403461560182695</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -2064,19 +2064,19 @@
         <v>48419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36837</v>
+        <v>37656</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61268</v>
+        <v>61049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06326437859434457</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04813133476351133</v>
+        <v>0.04920146798421837</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08005159518711556</v>
+        <v>0.07976591262220271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -2085,19 +2085,19 @@
         <v>57333</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44954</v>
+        <v>43843</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74514</v>
+        <v>70568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03885304426561401</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03046414049153589</v>
+        <v>0.02971137997028859</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0504957307448928</v>
+        <v>0.04782168619820994</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>701379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>693856</v>
+        <v>693221</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>706443</v>
+        <v>705982</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9874505096282384</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9768586388660091</v>
+        <v>0.975965384398174</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9945793150818455</v>
+        <v>0.9939308799697026</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>889</v>
@@ -2135,19 +2135,19 @@
         <v>716932</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>704083</v>
+        <v>704302</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>728514</v>
+        <v>727695</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9367356214056556</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9199484048128844</v>
+        <v>0.9202340873777972</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9518686652364888</v>
+        <v>0.9507985320157818</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1471</v>
@@ -2156,19 +2156,19 @@
         <v>1418310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1401129</v>
+        <v>1405075</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1430689</v>
+        <v>1431800</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9611469557343861</v>
+        <v>0.9611469557343859</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9495042692551072</v>
+        <v>0.952178313801791</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.969535859508464</v>
+        <v>0.9702886200297114</v>
       </c>
     </row>
     <row r="24">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5665</v>
+        <v>5808</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001436915547425694</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0071081582803107</v>
+        <v>0.007287462451084446</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2281,19 +2281,19 @@
         <v>20275</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13379</v>
+        <v>13162</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30581</v>
+        <v>30111</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02457296093325417</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01621543860084113</v>
+        <v>0.01595226711426747</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03706455075273284</v>
+        <v>0.03649424945665979</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2302,19 +2302,19 @@
         <v>21420</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13946</v>
+        <v>14189</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30699</v>
+        <v>31560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01320568777996279</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008597916462325023</v>
+        <v>0.008747548223327782</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01892629075499285</v>
+        <v>0.0194572325781575</v>
       </c>
     </row>
     <row r="26">
@@ -2331,7 +2331,7 @@
         <v>795786</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>791266</v>
+        <v>791123</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>796931</v>
@@ -2340,7 +2340,7 @@
         <v>0.9985630844525744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9928918417196895</v>
+        <v>0.9927125375489156</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2352,19 +2352,19 @@
         <v>804804</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>794498</v>
+        <v>794968</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811700</v>
+        <v>811917</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9754270390667459</v>
+        <v>0.9754270390667457</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9629354492472672</v>
+        <v>0.9635057505433403</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9837845613991589</v>
+        <v>0.9840477328857324</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1787</v>
@@ -2373,19 +2373,19 @@
         <v>1600590</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1591311</v>
+        <v>1590450</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1608064</v>
+        <v>1607821</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9867943122200372</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9810737092450073</v>
+        <v>0.9805427674218424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9914020835376749</v>
+        <v>0.9912524517766714</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>39908</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01134071447310502</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>219</v>
@@ -2498,19 +2498,19 @@
         <v>155081</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>134242</v>
+        <v>135544</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>181174</v>
+        <v>177572</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04172072495503839</v>
+        <v>0.04172072495503838</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03611444804591855</v>
+        <v>0.03646491850232821</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04874032050514027</v>
+        <v>0.0477714198252031</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>261</v>
@@ -2519,19 +2519,19 @@
         <v>194989</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>172137</v>
+        <v>170435</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>224117</v>
+        <v>222741</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0269465743780494</v>
+        <v>0.02694657437804941</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02378849893491861</v>
+        <v>0.02355325836603392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0309719647443804</v>
+        <v>0.03078181500823735</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3479108</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3464913</v>
+        <v>3464302</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3489963</v>
+        <v>3489809</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.988659285526895</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9846256146128457</v>
+        <v>0.9844517875608226</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9917440356269063</v>
+        <v>0.9917003517436069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5121</v>
@@ -2569,19 +2569,19 @@
         <v>3562037</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3535944</v>
+        <v>3539546</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3582876</v>
+        <v>3581574</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9582792750449615</v>
+        <v>0.9582792750449616</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9512596794948598</v>
+        <v>0.9522285801747965</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9638855519540815</v>
+        <v>0.9635350814976719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8440</v>
@@ -2590,19 +2590,19 @@
         <v>7041145</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7012017</v>
+        <v>7013393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7063997</v>
+        <v>7065699</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9730534256219505</v>
+        <v>0.9730534256219506</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9690280352556194</v>
+        <v>0.9692181849917625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9762115010650814</v>
+        <v>0.9764467416339656</v>
       </c>
     </row>
     <row r="30">
